--- a/data/income_statement/3digits/total/383_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/383_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>383-Materials recovery</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>383-Materials recovery</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>854086.51429</v>
@@ -959,34 +865,39 @@
         <v>2975807.47357</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3388168.76581</v>
+        <v>3388179.82505</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3699442.47888</v>
+        <v>3699451.63142</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3789965.064900001</v>
+        <v>3789970.65811</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4316579.787939999</v>
+        <v>4329178.655449999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4802017.139520001</v>
+        <v>4873088.64911</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>8363024.01838</v>
+        <v>8363024.018380001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>10217787.37788</v>
+        <v>10290901.31512</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>10887751.76806</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11229780.88317</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>14749765.513</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>818866.568</v>
@@ -998,34 +909,39 @@
         <v>2910739.26223</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3312743.45532</v>
+        <v>3312754.51456</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3573305.61437</v>
+        <v>3573314.76691</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3617123.841359999</v>
+        <v>3617129.43457</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3900108.16935</v>
+        <v>3911817.12842</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4557074.99963</v>
+        <v>4628035.55762</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>7899560.80603</v>
+        <v>7899560.806030001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>9410665.85141</v>
+        <v>9483712.161939999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>9332428.978219999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>9492288.236920001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12591088.922</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>27907.45381</v>
@@ -1046,7 +962,7 @@
         <v>139622.0013</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>160307.51835</v>
+        <v>161173.50361</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>206741.13072</v>
@@ -1055,16 +971,21 @@
         <v>416038.22225</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>742419.4137200001</v>
+        <v>742429.5594800001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1448638.72217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1630639.65979</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2042542.374</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>7312.492480000001</v>
@@ -1073,7 +994,7 @@
         <v>10455.14182</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>9099.673150000001</v>
+        <v>9099.673149999999</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>13280.26431</v>
@@ -1085,25 +1006,30 @@
         <v>33219.22224</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>256164.10024</v>
+        <v>256188.02342</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>38201.00917</v>
+        <v>38311.96077</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>47424.9901</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>64702.11275</v>
+        <v>64759.5937</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>106684.06767</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>106852.98646</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>116134.217</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>3198.59813</v>
@@ -1124,25 +1050,30 @@
         <v>34715.73085</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>30288.56046</v>
+        <v>30409.10836</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>263057.95783</v>
+        <v>263058.48683</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>32582.61241000001</v>
+        <v>32582.61241</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>71044.34964</v>
+        <v>71044.34964000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>117060.8613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>117328.70995</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>212962.17</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>1903.57619</v>
@@ -1163,10 +1094,10 @@
         <v>17931.98571</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>13736.18724</v>
+        <v>13851.17575</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>250236.83967</v>
+        <v>250237.36767</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>24882.05608</v>
@@ -1175,13 +1106,18 @@
         <v>52733.05136</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>71863.78663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>72131.63528</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>169252.596</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1230.96003</v>
@@ -1199,28 +1135,33 @@
         <v>4012.16026</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>6375.911339999999</v>
+        <v>6375.91134</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>9780.598</v>
+        <v>9786.157390000002</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>6329.19107</v>
+        <v>6329.19207</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>1496.52151</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>9911.89314</v>
+        <v>9911.893139999998</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>6917.58642</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>15199.546</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>64.06191</v>
@@ -1232,7 +1173,7 @@
         <v>217.30535</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>707.2613100000001</v>
+        <v>707.26131</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>1682.02989</v>
@@ -1244,10 +1185,10 @@
         <v>6771.77522</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>6491.927090000001</v>
+        <v>6491.92709</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>6204.034819999999</v>
+        <v>6204.03482</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>8399.405140000001</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>38279.48825</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>28510.028</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>850887.91616</v>
@@ -1271,37 +1217,42 @@
         <v>2967693.82147</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3371967.5873</v>
+        <v>3371978.64654</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3675583.69436</v>
+        <v>3675592.846900001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3755249.33405</v>
+        <v>3755254.92726</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4286291.227480001</v>
+        <v>4298769.54709</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4538959.181690001</v>
+        <v>4610030.16228</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>8330441.405970001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>10146743.02824</v>
+        <v>10219856.96548</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>10770690.90676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11112452.17322</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>14536803.343</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>771303.8308199999</v>
+        <v>771303.83082</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>1418871.93937</v>
@@ -1310,40 +1261,45 @@
         <v>2676632.44542</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3110507.07327</v>
+        <v>3110551.12734</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3400253.13797</v>
+        <v>3400296.52949</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3430751.79851</v>
+        <v>3430807.1305</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3977114.529399999</v>
+        <v>3987424.2336</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4137010.01883</v>
+        <v>4206753.2286</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>7712097.421270001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>9327850.835200001</v>
+        <v>9400097.322360002</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>9671949.350390002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10020500.18238</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>13151206.264</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>156846.42214</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>355450.0787000001</v>
+        <v>355450.0787</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>637469.26977</v>
@@ -1358,25 +1314,30 @@
         <v>1604559.52738</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1670669.6745</v>
+        <v>1679082.80815</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1736919.81329</v>
+        <v>1797068.55346</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2546869.92819</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3955424.58428</v>
+        <v>3962602.603019999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4487526.06641</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4545012.14742</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>6290320.085</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>596141.7124099999</v>
@@ -1397,25 +1358,30 @@
         <v>1727106.8926</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2218496.17399</v>
+        <v>2219470.07921</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2300401.26855</v>
+        <v>2309915.6172</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>5030886.45825</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>5214405.020819999</v>
+        <v>5279298.350819999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>5011587.11839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5300800.974200001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>6613812.415</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>16964.12575</v>
@@ -1424,37 +1390,42 @@
         <v>41407.99387</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>69012.53784</v>
+        <v>69012.53783999999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>93765.03547</v>
+        <v>93809.08954</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>114089.43841</v>
+        <v>114132.82993</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>93769.80927000001</v>
+        <v>93825.14125999999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>81528.99182</v>
+        <v>82451.65715</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>92334.13534000001</v>
+        <v>92410.13094999999</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>119081.59393</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>131385.0658</v>
+        <v>131433.05436</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>149218.16394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>151019.05911</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>209817.754</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1351.57052</v>
@@ -1472,28 +1443,33 @@
         <v>1475.658</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>5315.569259999998</v>
+        <v>5315.56926</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>6419.68909</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>7354.801649999999</v>
+        <v>7358.92699</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>15259.4409</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>26636.1643</v>
+        <v>26763.31416</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>23618.00165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>23668.00165</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>37256.01</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>79584.08534000001</v>
@@ -1505,37 +1481,42 @@
         <v>291061.37605</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>261460.51403</v>
+        <v>261427.5192</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>275330.55639</v>
+        <v>275296.31741</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>324497.53554</v>
+        <v>324447.79676</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>309176.6980800001</v>
+        <v>311345.31349</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>401949.16286</v>
+        <v>403276.93368</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>618343.9847</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>818892.1930399999</v>
+        <v>819759.64312</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1098741.55637</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1091951.99084</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1385597.079</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>82024.10876999999</v>
+        <v>82024.10877000001</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>116262.26704</v>
@@ -1547,31 +1528,36 @@
         <v>195941.81929</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>205921.69399</v>
+        <v>205924.33399</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>222641.07559</v>
+        <v>222643.90759</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>244706.42523</v>
+        <v>246581.26917</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>274044.17418</v>
+        <v>275375.9585900001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>339960.31388</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>466404.6333100001</v>
+        <v>467439.384</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>596730.15263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>605476.5688199999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>706613.8959999999</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>141.44583</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>1169.3521</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1819.104</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>25590.88343</v>
@@ -1622,7 +1613,7 @@
         <v>57680.75861</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>62612.64984</v>
+        <v>62612.64984000001</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>59447.8719</v>
@@ -1631,28 +1622,33 @@
         <v>66474.31151</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>66536.45324</v>
+        <v>66599.37909</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>74033.68806999999</v>
+        <v>74711.04461</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>99699.64233000002</v>
+        <v>99699.64233</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>141192.64748</v>
+        <v>141249.1785</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>187488.65369</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>189458.75796</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>223042.233</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>56291.77951000001</v>
+        <v>56291.77951</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>82339.56791</v>
@@ -1664,31 +1660,36 @@
         <v>133194.27359</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>146202.52241</v>
+        <v>146205.16241</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>155887.13638</v>
+        <v>155889.96838</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>178031.44201</v>
+        <v>179843.3601</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>199840.42549</v>
+        <v>200494.85336</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>237923.46972</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>324936.34527</v>
+        <v>325914.56494</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>408072.1468400001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>414848.45876</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>481752.559</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-2440.02343</v>
@@ -1700,34 +1701,39 @@
         <v>111710.11118</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>65518.69474000001</v>
+        <v>65485.69991</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>69408.86240000001</v>
+        <v>69371.98342</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>101856.45995</v>
+        <v>101803.88917</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>64470.27285</v>
+        <v>64764.04431999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>127904.98868</v>
+        <v>127900.97509</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>278383.67082</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>352487.55973</v>
+        <v>352320.25912</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>502011.40374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>486475.4220199999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>678983.183</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>9151.180550000001</v>
@@ -1748,25 +1754,30 @@
         <v>43221.84511</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>99446.06843</v>
+        <v>99585.84175000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>92616.79642</v>
+        <v>93015.65738</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>141754.5751</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>468621.19831</v>
+        <v>468665.98531</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>557694.6513</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>558698.64469</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1365999.272</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1892.1695</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>181.816</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>526.171</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>693.65048</v>
@@ -1868,22 +1889,27 @@
         <v>4508.60866</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4869.693</v>
+        <v>4937.16768</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>11664.13444</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>26388.36477</v>
+        <v>26449.58227</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>17536.51455</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>17985.02952</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>16360.889</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1895,7 +1921,7 @@
         <v>16.20422</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>432.54217</v>
+        <v>432.5421700000001</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>355.84794</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2576.768</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>282.33331</v>
@@ -1946,7 +1977,7 @@
         <v>435.93821</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>727.4379299999999</v>
+        <v>806.0294700000001</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>819.4457</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1035.55122</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1706.375</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>33.92317</v>
@@ -1994,13 +2030,18 @@
         <v>2711.47615</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>305.7649699999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>305.76497</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>837.625</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>5283.297310000001</v>
@@ -2021,10 +2062,10 @@
         <v>30557.37056</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>83047.46071000001</v>
+        <v>83187.23403000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>77745.79742</v>
+        <v>77767.47417</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>118188.75369</v>
@@ -2033,13 +2074,18 @@
         <v>417241.4697</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>510858.4370800001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>511601.80237</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1240430.201</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>14.72596</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>9.452999999999999</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>95.71994000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>118.486</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>965.80678</v>
@@ -2141,25 +2197,30 @@
         <v>4140.38337</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>7674.40088</v>
+        <v>7905.51887</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>7756.1011</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>21270.82064</v>
+        <v>21254.39014</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>27492.08964</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>27304.20277</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>103251.488</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>6549.13314</v>
+        <v>6549.133140000001</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>6625.46431</v>
@@ -2174,10 +2235,10 @@
         <v>50337.38943</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>82147.96836</v>
+        <v>82147.96836000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>83942.99047</v>
+        <v>83968.82057000001</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>92444.2396</v>
@@ -2189,13 +2250,18 @@
         <v>426673.7831</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>550031.60853</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>551008.74518</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1289954.972</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>59.95929</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>395.48142</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>1410.926</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>441.614</v>
@@ -2258,10 +2329,10 @@
         <v>826.7338500000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>6806.365380000001</v>
+        <v>6806.36538</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>3861.176289999999</v>
+        <v>3861.17629</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>2263.30342</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>13309.75275</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>2884.627</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>40.65444</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>9.451700000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>4507.93442</v>
@@ -2321,7 +2402,7 @@
         <v>4143.18308</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>9356.9632</v>
+        <v>9356.963200000002</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>11624.47548</v>
@@ -2333,7 +2414,7 @@
         <v>32729.68634</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>80789.84439000001</v>
+        <v>80815.67449</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>83481.77117000001</v>
@@ -2345,13 +2426,18 @@
         <v>422054.50282</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>503848.23943</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>504825.37608</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1244136.094</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>91.09322</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1.75092</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>256.29225</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1135.392</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1407.87777</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>858.2205299999999</v>
+        <v>858.2205300000002</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>2746.58352</v>
@@ -2456,7 +2552,7 @@
         <v>2003.48912</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>6631.855970000001</v>
+        <v>6631.85597</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>1557.96862</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>32210.64006</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>40387.001</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>11887.6334</v>
@@ -2489,25 +2590,30 @@
         <v>64684.62083</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>72424.28198</v>
+        <v>72894.36989</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>93956.16422999999</v>
+        <v>93993.75167</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>119089.36719</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>200058.14261</v>
+        <v>200066.975</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>233720.84549</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>235430.49408</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>256757.935</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>10226.28025</v>
@@ -2522,31 +2628,36 @@
         <v>39456.31115</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>43126.04146</v>
+        <v>43126.04145999999</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>59403.83511</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>68704.34723999999</v>
+        <v>69174.43515</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>90515.20328</v>
+        <v>90552.79072000002</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>115958.33729</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>182551.34335</v>
+        <v>182560.17574</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>228251.33335</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>229854.17054</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>251797.704</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1661.35315</v>
@@ -2561,7 +2672,7 @@
         <v>1367.21729</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>4513.149380000001</v>
+        <v>4513.14938</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>5280.78572</v>
@@ -2579,13 +2690,18 @@
         <v>17506.79926</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>5469.512140000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5576.323539999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4960.231</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-11725.60942</v>
@@ -2594,37 +2710,42 @@
         <v>36827.41039</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>80789.80114000001</v>
+        <v>80789.80114</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>27956.48728</v>
+        <v>27923.49245</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-121.9458499999992</v>
+        <v>-158.8248300000019</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-1754.284129999995</v>
+        <v>-1806.854909999996</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>7549.06883</v>
+        <v>7486.695610000002</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>34121.38127000001</v>
+        <v>34478.64120000001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>158632.7561</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>194376.83233</v>
+        <v>194245.48633</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>275953.60102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>258734.82745</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>498269.548</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>2081.00756</v>
@@ -2633,10 +2754,10 @@
         <v>3956.00863</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>7974.080969999999</v>
+        <v>7974.080970000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>7850.122300000001</v>
+        <v>7850.1223</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>7919.874589999999</v>
@@ -2645,25 +2766,30 @@
         <v>14076.15616</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>20774.0421</v>
+        <v>20834.95865</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>36811.26268</v>
+        <v>37052.75887999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>21407.11592</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>22236.74523</v>
+        <v>22255.17412</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>44140.73965</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>44443.65184000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>49545.361</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>8.2247</v>
@@ -2690,19 +2816,24 @@
         <v>654.4647300000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>609.6578499999999</v>
+        <v>609.6578500000001</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>83.32731</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>386.0168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>386.31102</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>802.0599999999999</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>2072.78286</v>
@@ -2714,7 +2845,7 @@
         <v>7901.32625</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>7844.596620000001</v>
+        <v>7844.596619999999</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>7677.40627</v>
@@ -2723,25 +2854,30 @@
         <v>12545.26659</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>20481.75633</v>
+        <v>20542.67288</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>36156.79795</v>
+        <v>36398.29415000001</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>20797.45807</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>22153.41792</v>
+        <v>22171.84681</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>43754.72285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>44057.34082</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>48743.301</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>5269.76548</v>
@@ -2756,31 +2892,36 @@
         <v>13270.09597</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>39671.86704999999</v>
+        <v>39671.86706</v>
       </c>
       <c r="H51" s="47" t="n">
         <v>34585.70774</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>24731.71038</v>
+        <v>24737.60549</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>51408.13490999999</v>
+        <v>51413.99993999999</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>45707.83168</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>49382.41781</v>
+        <v>49388.31085</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>72440.98824999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>72847.54716</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>113023.639</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>277.79211</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>5267.387320000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>10763.724</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>112.12544</v>
@@ -2852,13 +2998,18 @@
         <v>1116.49356</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>9706.286820000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>9729.862429999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>54641.822</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>4879.84793</v>
@@ -2873,31 +3024,36 @@
         <v>9007.290660000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>31980.61318</v>
+        <v>31980.61319</v>
       </c>
       <c r="H54" s="48" t="n">
         <v>30664.36702</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>18655.71774</v>
+        <v>18661.61285</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>47670.9565</v>
+        <v>47676.82153</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>41382.71983</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>46620.40762000001</v>
+        <v>46626.30065999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>57467.31411</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>57850.29741000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>47618.093</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-14914.36734</v>
@@ -2909,34 +3065,39 @@
         <v>63259.25184</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>22536.51361</v>
+        <v>22503.51878</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-31873.93831</v>
+        <v>-31910.81730000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-22263.83571</v>
+        <v>-22316.40648999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3591.400549999999</v>
+        <v>3584.048769999998</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>19524.50904</v>
+        <v>20117.40014</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>134332.04034</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>167231.15975</v>
+        <v>167112.3496</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>247653.35242</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>230330.93213</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>434791.27</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>1678.92496</v>
@@ -2948,7 +3109,7 @@
         <v>17594.17988</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>8752.202209999999</v>
+        <v>8752.202210000001</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>10156.86258</v>
@@ -2957,25 +3118,30 @@
         <v>16909.28772</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>9853.59836</v>
+        <v>9912.653460000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>11901.13149</v>
+        <v>12122.99353</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>27470.21278</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>39481.77918</v>
+        <v>39558.03428</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>72753.95110999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>73027.81981</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>92530.785</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-16593.2923</v>
@@ -2987,31 +3153,34 @@
         <v>45665.07196</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>13784.3114</v>
+        <v>13751.31657</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-42030.80088999999</v>
+        <v>-42067.67988</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-39173.12342999999</v>
+        <v>-39225.69421</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-6262.197810000001</v>
+        <v>-6328.604689999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>7623.377549999997</v>
+        <v>7994.406609999995</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>106861.82756</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>127749.38057</v>
+        <v>127554.31532</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>174899.40131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>157303.11232</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>342260.485</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>227</v>
@@ -3041,31 +3213,34 @@
         <v>359</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>776</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>954</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>